--- a/uploads/PLANILLA DATOS.xlsx
+++ b/uploads/PLANILLA DATOS.xlsx
@@ -100,7 +100,7 @@
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,10 +140,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -155,6 +156,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -215,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +291,26 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -364,6 +393,7 @@
       <sheetName val="DELITOS"/>
       <sheetName val="EMPRESA"/>
       <sheetName val="Gestor de Datos"/>
+      <sheetName val="Hoja1"/>
       <sheetName val="CARGA DE DATOS"/>
       <sheetName val="PLANILLA DE DATA TELEFONICA "/>
     </sheetNames>
@@ -374,6 +404,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -387,7 +418,6 @@
       <sheetName val="DELITOS"/>
       <sheetName val="EMPRESA"/>
       <sheetName val="Gestor de Datos"/>
-      <sheetName val="Hoja1"/>
       <sheetName val="CARGA DE DATOS"/>
       <sheetName val="PLANILLA DE DATA TELEFONICA "/>
     </sheetNames>
@@ -398,7 +428,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -581,17 +610,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
@@ -638,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
@@ -673,6 +702,125 @@
         <v>4121556598</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
